--- a/meta/program/BlancoDbSetting.xlsx
+++ b/meta/program/BlancoDbSetting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbCommon/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FAA91EAD-8CC9-C548-9A2D-D4ADFC5627FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F7675-9C42-384B-BCD5-AC5B9479B098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="64000" windowHeight="21140" tabRatio="640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17880" windowHeight="21140" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -352,11 +352,73 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>useRuntime</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ランタイムを使用してインタフェイスやアノテーションを設定します。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>targetStyle</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力先フォルダの書式を指定します。&lt;br&gt;
+blanco: [targetdir]/main&lt;br&gt;
+maven: [targetdir]/main/java&lt;br&gt;
+free: [targetdir](targetdirが無指定の場合はblanco/main)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"blanco"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"LF"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>verbose</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自動生成に関してより詳細な情報を出力します。</t>
+    <rPh sb="0" eb="1">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カンシテ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ショウサイナ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジョウホウヲ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -867,38 +929,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,13 +1326,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1442,23 +1506,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="59"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="58"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="59"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1495,29 +1559,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="53" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1538,7 +1602,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="32">
-        <f t="shared" ref="A28:A44" si="0">A27+1</f>
+        <f t="shared" ref="A28:A48" si="0">A27+1</f>
         <v>2</v>
       </c>
       <c r="B28" s="33" t="s">
@@ -1567,10 +1631,10 @@
       <c r="D29" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="53"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
@@ -1603,10 +1667,10 @@
       <c r="D31" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="51"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1">
       <c r="A32" s="32">
@@ -1622,10 +1686,10 @@
       <c r="D32" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="27" customHeight="1">
       <c r="A33" s="32">
@@ -1639,10 +1703,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="51"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="32">
@@ -1704,13 +1768,13 @@
         <v>46</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D37" s="34"/>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="51"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="1:6" ht="30.5" customHeight="1">
       <c r="A38" s="32">
@@ -1724,10 +1788,10 @@
         <v>27</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="51"/>
+      <c r="F38" s="56"/>
     </row>
     <row r="39" spans="1:6" ht="26" customHeight="1">
       <c r="A39" s="32">
@@ -1760,10 +1824,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="37"/>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:6" ht="27.5" customHeight="1">
       <c r="A41" s="32">
@@ -1779,10 +1843,10 @@
       <c r="D41" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="51"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="1:6" ht="58.25" customHeight="1">
       <c r="A42" s="32">
@@ -1798,10 +1862,10 @@
       <c r="D42" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="51"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="1:6" ht="29" customHeight="1">
       <c r="A43" s="32">
@@ -1815,10 +1879,10 @@
         <v>27</v>
       </c>
       <c r="D43" s="37"/>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1">
       <c r="A44" s="32">
@@ -1829,40 +1893,106 @@
         <v>72</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="24"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="40"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="29" customHeight="1">
+      <c r="A45" s="32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="93" customHeight="1">
+      <c r="A46" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="28" customHeight="1">
+      <c r="A47" s="32">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="1:6" ht="28" customHeight="1">
+      <c r="A48" s="32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="24"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
+  <mergeCells count="26">
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
@@ -1871,30 +2001,44 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D61">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D65" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>adjustDefaultValue</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>adjustFiledName</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>createToString</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>accessScope2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>isAbstract</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1908,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/meta/program/BlancoDbSetting.xlsx
+++ b/meta/program/BlancoDbSetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbCommon/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F7675-9C42-384B-BCD5-AC5B9479B098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB7567-8636-D14E-BF0D-810632D1E732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17880" windowHeight="21140" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="680" windowWidth="17880" windowHeight="21140" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -935,32 +935,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,10 +1330,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1506,23 +1506,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="59"/>
+      <c r="E19" s="61"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="60"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
-      <c r="E20" s="59"/>
+      <c r="E20" s="61"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1559,29 +1559,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="58" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1602,7 +1602,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="32">
-        <f t="shared" ref="A28:A48" si="0">A27+1</f>
+        <f t="shared" ref="A28:A49" si="0">A27+1</f>
         <v>2</v>
       </c>
       <c r="B28" s="33" t="s">
@@ -1631,7 +1631,7 @@
       <c r="D29" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="57" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="52"/>
@@ -1667,10 +1667,10 @@
       <c r="D31" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1">
       <c r="A32" s="32">
@@ -1686,7 +1686,7 @@
       <c r="D32" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="57" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="52"/>
@@ -1703,10 +1703,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="32">
@@ -1771,10 +1771,10 @@
         <v>76</v>
       </c>
       <c r="D37" s="34"/>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" ht="30.5" customHeight="1">
       <c r="A38" s="32">
@@ -1788,10 +1788,10 @@
         <v>27</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" ht="26" customHeight="1">
       <c r="A39" s="32">
@@ -1807,10 +1807,10 @@
       <c r="D39" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="57"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:6" ht="39" customHeight="1">
       <c r="A40" s="32">
@@ -1824,10 +1824,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="37"/>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="56"/>
+      <c r="F40" s="54"/>
     </row>
     <row r="41" spans="1:6" ht="27.5" customHeight="1">
       <c r="A41" s="32">
@@ -1843,10 +1843,10 @@
       <c r="D41" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="58.25" customHeight="1">
       <c r="A42" s="32">
@@ -1862,10 +1862,10 @@
       <c r="D42" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="29" customHeight="1">
       <c r="A43" s="32">
@@ -1879,10 +1879,10 @@
         <v>27</v>
       </c>
       <c r="D43" s="37"/>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1">
       <c r="A44" s="32">
@@ -1979,16 +1979,35 @@
       </c>
       <c r="F48" s="52"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="24"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="40"/>
+    <row r="49" spans="1:6" ht="27.5" customHeight="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="24"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E40:F40"/>
@@ -2005,20 +2024,10 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D65" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoDbSetting.xlsx
+++ b/meta/program/BlancoDbSetting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbCommon/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB7567-8636-D14E-BF0D-810632D1E732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137D62B-F366-DC44-AB81-A0857224CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="680" windowWidth="17880" windowHeight="21140" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -397,6 +397,37 @@
   </si>
   <si>
     <t>自動生成に関してより詳細な情報を出力します。</t>
+    <rPh sb="0" eb="1">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カンシテ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ショウサイナ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジョウホウヲ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>addIntrospected</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>micronaut向けに Row クラスに Introspected アノテーションを付与します</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>noFinalize</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>finalizeメソッドを生成しません。Java9以降は非推奨となっているのでデフォルト値を True とします。</t>
     <rPh sb="0" eb="1">
       <t>ジドウセイセイ</t>
     </rPh>
@@ -795,20 +826,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,12 +861,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -908,10 +937,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,38 +958,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,10 +1359,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="E51" sqref="E51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1464,11 +1493,11 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -1489,11 +1518,11 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
@@ -1506,47 +1535,47 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="61"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="57"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="53"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="61"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="57"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
@@ -1559,343 +1588,343 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="32">
-        <f t="shared" ref="A28:A49" si="0">A27+1</f>
+      <c r="A28" s="30">
+        <f t="shared" ref="A28:A50" si="0">A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="45" customHeight="1">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="56" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="27" customHeight="1">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="54" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="32">
+      <c r="A35" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="32">
+      <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34" t="s">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="35"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="43.25" customHeight="1">
-      <c r="A37" s="32">
+      <c r="A37" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="54" t="s">
+      <c r="D37" s="32"/>
+      <c r="E37" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:6" ht="30.5" customHeight="1">
-      <c r="A38" s="32">
+      <c r="A38" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="54" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6" ht="26" customHeight="1">
-      <c r="A39" s="32">
+      <c r="A39" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="60"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" ht="39" customHeight="1">
-      <c r="A40" s="32">
+      <c r="A40" s="30">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="54" t="s">
+      <c r="D40" s="35"/>
+      <c r="E40" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A41" s="32">
+      <c r="A41" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="54"/>
+      <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6" ht="58.25" customHeight="1">
-      <c r="A42" s="32">
+      <c r="A42" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6" ht="29" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="56" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="56"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="48" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="51" t="s">
@@ -1904,17 +1933,17 @@
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="29" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="48" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="51" t="s">
@@ -1923,17 +1952,17 @@
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="93" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="48" t="s">
         <v>79</v>
       </c>
       <c r="E46" s="51" t="s">
@@ -1942,17 +1971,17 @@
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="28" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="48" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="51" t="s">
@@ -1961,17 +1990,17 @@
       <c r="F47" s="52"/>
     </row>
     <row r="48" spans="1:6" ht="28" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="50" t="b">
+      <c r="D48" s="48" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="51" t="s">
@@ -1979,36 +2008,62 @@
       </c>
       <c r="F48" s="52"/>
     </row>
-    <row r="49" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="40"/>
+    <row r="49" spans="1:6" ht="28" customHeight="1">
+      <c r="A49" s="30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="28" customHeight="1">
+      <c r="A50" s="30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="27.5" customHeight="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="22"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E47:F47"/>
+  <mergeCells count="29">
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E48:F48"/>
@@ -2024,10 +2079,24 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2100,48 +2169,48 @@
       <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="B4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
